--- a/arquivos_postos/output/16527263000193.xlsx
+++ b/arquivos_postos/output/16527263000193.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -483,6 +488,11 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,6 +518,11 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -533,6 +548,11 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -558,6 +578,11 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -583,6 +608,11 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -608,6 +638,11 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -633,6 +668,11 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -658,6 +698,11 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -683,6 +728,11 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -707,6 +757,11 @@
       </c>
       <c r="G11" t="n">
         <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -720,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +809,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -773,6 +833,11 @@
       <c r="E2" t="n">
         <v>95000</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -792,6 +857,11 @@
       <c r="E3" t="n">
         <v>10000</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -811,6 +881,11 @@
       <c r="E4" t="n">
         <v>20000</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -829,6 +904,11 @@
       </c>
       <c r="E5" t="n">
         <v>45000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
